--- a/Daten/Dictionaries/Dictionary Schoko.xlsx
+++ b/Daten/Dictionaries/Dictionary Schoko.xlsx
@@ -29,7 +29,7 @@
     <t>Word</t>
   </si>
   <si>
-    <t>Schoklade</t>
+    <t>Guitar</t>
   </si>
   <si>
     <t>fasdf</t>
